--- a/biology/Médecine/Bouleau/Bouleau.xlsx
+++ b/biology/Médecine/Bouleau/Bouleau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betula
 Les bouleaux  (Betula) forment un genre de plantes à fleurs de la famille des bétulacées. La plupart des espèces sont des arbres ; quelques-unes, comme Betula nana, sont des chaméphytes.
 Les bouleaux poussent en général sur les terres pauvres et souvent siliceuses, jusqu'à 2 000 m d'altitude, ainsi que dans les régions arctiques. Les bouleaux sont des plantes pionnières qui constituent souvent la première formation arborée lors de la reconquête ou de la colonisation de landes par la forêt. Ils apprécient les sols plutôt acides et humides. Les bouleaux forment des futaies appelées boulaies  ou boulinières ou encore des bétulaies.
 Il existe quatre espèces de bouleaux en Europe, dont deux arbres largement répandus : Betula pendula, le bouleau verruqueux, et Betula pubescens, le bouleau pubescent, et deux arbrisseaux des régions arctiques : Betula nana, le bouleau nain, et Betula humilis. De nombreuses autres espèces se rencontrent en Asie et en Amérique du Nord.
-En climat tempéré, les bouleaux vivent peu de temps (trente à quarante ans), mais plus au nord (Suède, Finlande, Russie, etc.), ils peuvent vivre jusqu’à cent ans et plus[1].
-Cet arbre à feuilles caduques de la famille des Betulaceae fleurit d'avril à mai. Le bouleau est très connu pour son écorce blanche, lisse et brillante, ses petites feuilles colorées de teintes vert clair au printemps et jaune à l’automne[2]. Sa couleur blanche est due à la bétuline (en), son principal constituant. Le branchage a un port souvent dressé et relativement aéré[1], filtrant la lumière en été sans la bloquer. Le bouleau est donc considéré comme un bel arbre d'ornement[2] et ses caractéristiques lui permettent de s'adapter à tous les types de jardins[1]. Ses inflorescences sont des chatons allongés de 10 cm de longueur, dressés puis pendants pour les mâles et de 3 cm dressés pour les femelles. Ses fruits sont des samares groupées en chatons. Cet arbre à l'écorce blanche écaillée peut atteindre 20 à 30 m de hauteur et jusqu'à 60 cm de diamètre à la base. Les racines des bouleaux sont peu profondes[1]. On attribue à sa sève, ainsi qu'à son écorce, de nombreuses propriétés médicinales et autres[3],[4],[5],[6].
+En climat tempéré, les bouleaux vivent peu de temps (trente à quarante ans), mais plus au nord (Suède, Finlande, Russie, etc.), ils peuvent vivre jusqu’à cent ans et plus.
+Cet arbre à feuilles caduques de la famille des Betulaceae fleurit d'avril à mai. Le bouleau est très connu pour son écorce blanche, lisse et brillante, ses petites feuilles colorées de teintes vert clair au printemps et jaune à l’automne. Sa couleur blanche est due à la bétuline (en), son principal constituant. Le branchage a un port souvent dressé et relativement aéré, filtrant la lumière en été sans la bloquer. Le bouleau est donc considéré comme un bel arbre d'ornement et ses caractéristiques lui permettent de s'adapter à tous les types de jardins. Ses inflorescences sont des chatons allongés de 10 cm de longueur, dressés puis pendants pour les mâles et de 3 cm dressés pour les femelles. Ses fruits sont des samares groupées en chatons. Cet arbre à l'écorce blanche écaillée peut atteindre 20 à 30 m de hauteur et jusqu'à 60 cm de diamètre à la base. Les racines des bouleaux sont peu profondes. On attribue à sa sève, ainsi qu'à son écorce, de nombreuses propriétés médicinales et autres.
 </t>
         </is>
       </c>
@@ -516,11 +528,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme bouleau procède de l'ancien pluriel du mot boulel (jadis un boulel, des bouleaux). L'ancien français boulel est le diminutif de l'ancien français boul, bououl [7] (cf. un boulay ou une boulaie, « bois, forêt où le bouleau domine »). Le terme boul est issu du latin vulgaire betullus (&lt; latin classique betulla) d'origine probablement celtique (gaulois), sur la base de *betuo-, thématisation de *betu-, dont est issu le nom brittonique du même arbre : breton bezv, gallois bedw et vieil irlandais beithe « bouleau »[8]. *betu-/betto pourrait désigner à l'origine en celtique, la poix (goudron de bouleau) obtenue en chauffant de jeunes arbres pleins de sève et équivalent du latin bitumen[9]. Plus tard, le mot évolue en betun pour désigner une boue en train de se solidifier. Michel Roussillat suggère que le mot bitume et béton tirent tous deux leur origine de ces désignations[10].
-Le catalan et l'occitan ont beç/bès « bouleau », le gascon a bedoth, bedora, l'espagnol abedul, le corse vitullu. La toponymie et l'anthroponymie du sud de la France comptent de nombreux Besse, Bessières (« plantation de bouleaux »), Bèze, voire Besant, qui signifient tous « bois de bouleaux, boulaie »[8].
-Quelques toponymes pourraient tirer leur origine du bouleau : Boul, Bellay, Belloy, Beuley, Bioller, Boulay, Bessat, Bessay, Besseyre[11]…
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme bouleau procède de l'ancien pluriel du mot boulel (jadis un boulel, des bouleaux). L'ancien français boulel est le diminutif de l'ancien français boul, bououl  (cf. un boulay ou une boulaie, « bois, forêt où le bouleau domine »). Le terme boul est issu du latin vulgaire betullus (&lt; latin classique betulla) d'origine probablement celtique (gaulois), sur la base de *betuo-, thématisation de *betu-, dont est issu le nom brittonique du même arbre : breton bezv, gallois bedw et vieil irlandais beithe « bouleau ». *betu-/betto pourrait désigner à l'origine en celtique, la poix (goudron de bouleau) obtenue en chauffant de jeunes arbres pleins de sève et équivalent du latin bitumen. Plus tard, le mot évolue en betun pour désigner une boue en train de se solidifier. Michel Roussillat suggère que le mot bitume et béton tirent tous deux leur origine de ces désignations.
+Le catalan et l'occitan ont beç/bès « bouleau », le gascon a bedoth, bedora, l'espagnol abedul, le corse vitullu. La toponymie et l'anthroponymie du sud de la France comptent de nombreux Besse, Bessières (« plantation de bouleaux »), Bèze, voire Besant, qui signifient tous « bois de bouleaux, boulaie ».
+Quelques toponymes pourraient tirer leur origine du bouleau : Boul, Bellay, Belloy, Beuley, Bioller, Boulay, Bessat, Bessay, Besseyre…
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bouleau est une espèce adaptée aux climats tempérés ou froids[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouleau est une espèce adaptée aux climats tempérés ou froids.
 </t>
         </is>
       </c>
@@ -582,102 +598,338 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation
-Le brai ou goudron de bouleau était largement utilisé comme adhésif dès le Paléolithique moyen jusqu'au début du Mésolithique. Les Néandertaliens produisaient du brai par distillation sèche de l'écorce de bouleau il y a 200 000 ans[13],[14]. 
-En Europe du Nord (Scandinavie, Pays baltes, Sibérie), le rhytidome (écorce au sens strict) de bouleau, tressé en lanières, était utilisé à la campagne pour fabriquer des chaussures appelées lapti (лапти) en Russie. En Russie, il a également servi de support d'écriture [15].
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le brai ou goudron de bouleau était largement utilisé comme adhésif dès le Paléolithique moyen jusqu'au début du Mésolithique. Les Néandertaliens produisaient du brai par distillation sèche de l'écorce de bouleau il y a 200 000 ans,. 
+En Europe du Nord (Scandinavie, Pays baltes, Sibérie), le rhytidome (écorce au sens strict) de bouleau, tressé en lanières, était utilisé à la campagne pour fabriquer des chaussures appelées lapti (лапти) en Russie. En Russie, il a également servi de support d'écriture .
 Le bouleau est également un arbre décoratif utilisé dans les parcs et jardins. Il est souvent planté par groupe de trois ou conduit en cépée.
 Le bouleau brûle vite sans que sa flamme soit trop chaude et il laisse très peu de cendres. Apprécié des boulangers, c'était le bois de boulange. Des fagots étaient également utilisés pour faire chauffer l'huile de friture (pour par exemple frire les frites), le cuisinier atteignait ainsi rapidement une température suffisante. La vitesse de chauffe et de combustion lui permettait de gérer le rapport entre les temps morts entre les clients et la quantité de bois utilisé. 
 L'écorce de bouleau est un amadou efficace et qui brûle bien, connu depuis le Néolithique.
-En Europe du Sud où leur croissance est rapide, le bois des bouleaux pubescents et verruqueux est considéré comme de peu de valeur. Dans les pays du Nord où il croît plus lentement, on en tire un bois de belle qualité, d'aspect très blanc, doux et soyeux, qui se travaille et s'imprègne facilement. Ses propriétés mécaniques sont excellentes, son grain est fin et uniforme. C'est un bois considéré comme facile à dérouler[16].
-Le bois du bouleau jaune est utilisé en menuiserie (au Canada sous le nom de merisier et sous le nom de merisier rouge pour le bouleau flexible[17]). On s'en sert afin de réaliser du contre-plaqué à âme d'épicéa[16]. Facile à tourner, le bois de bouleau a permis la fabrication de millions de chaises Windsor en Angleterre. Cependant, ce cas reste isolé[18]. On peut trouver du bouleau dans la fabrication de skis, de raquettes à neige ou encore de toits en Scandinavie[19]. Durant la Deuxième guerre mondiale, ce bois a également été utilisé pour la fabrication de certains avions militaires, en particulier pour le De Havilland DH.98 Mosquito[20].
-En Amérique du Nord, de l'Est du Canada à l'Alaska, on produit à partir de la sève brute du bouleau de l'eau de bouleau, de la bière (Birch beer), du vin, de l'eau-de-vie, du vinaigre et du sirop de bouleau (un sirop édulcorant similaire au sirop d'érable)[21].
-Ötzi, l'homme du Néolithique moyen, mort 4 546 ± 15 ans av. J.-C., retrouvé sur un glacier entre l'Autriche et l'Italie, en 1991, détenait des flèches dont la pointe de silex était solidement fixée notamment à l'aide de brai de bouleau. Auparavant, en 1960, des traces de fabrication datant de 43 800 ± 2 100 BP et 48 400 ± 3 700 BP ont été retrouvées en Allemagne à Königsaue près d'Aschersleben, Saxe-Anhalt, Allemagne[22], ce qui en fait la plus ancienne colle fabriquée par l'homme. Ce même bitume de bouleau servait à calfater les embarcations. Enfin, sur les sites mésolithiques  (10 000 - 5 500 av. J.-C.) de Star Carr, Royaume-Uni ou encore néolithique (5 500 - 2 000 BC) d'Altscherbitz, Saxe, Allemagne, de la poix de bouleau a également été trouvée, portant des empreintes de dents humaines, sans toutefois que l'on sache à quelle fin (technique ou dentaire).
+En Europe du Sud où leur croissance est rapide, le bois des bouleaux pubescents et verruqueux est considéré comme de peu de valeur. Dans les pays du Nord où il croît plus lentement, on en tire un bois de belle qualité, d'aspect très blanc, doux et soyeux, qui se travaille et s'imprègne facilement. Ses propriétés mécaniques sont excellentes, son grain est fin et uniforme. C'est un bois considéré comme facile à dérouler.
+Le bois du bouleau jaune est utilisé en menuiserie (au Canada sous le nom de merisier et sous le nom de merisier rouge pour le bouleau flexible). On s'en sert afin de réaliser du contre-plaqué à âme d'épicéa. Facile à tourner, le bois de bouleau a permis la fabrication de millions de chaises Windsor en Angleterre. Cependant, ce cas reste isolé. On peut trouver du bouleau dans la fabrication de skis, de raquettes à neige ou encore de toits en Scandinavie. Durant la Deuxième guerre mondiale, ce bois a également été utilisé pour la fabrication de certains avions militaires, en particulier pour le De Havilland DH.98 Mosquito.
+En Amérique du Nord, de l'Est du Canada à l'Alaska, on produit à partir de la sève brute du bouleau de l'eau de bouleau, de la bière (Birch beer), du vin, de l'eau-de-vie, du vinaigre et du sirop de bouleau (un sirop édulcorant similaire au sirop d'érable).
+Ötzi, l'homme du Néolithique moyen, mort 4 546 ± 15 ans av. J.-C., retrouvé sur un glacier entre l'Autriche et l'Italie, en 1991, détenait des flèches dont la pointe de silex était solidement fixée notamment à l'aide de brai de bouleau. Auparavant, en 1960, des traces de fabrication datant de 43 800 ± 2 100 BP et 48 400 ± 3 700 BP ont été retrouvées en Allemagne à Königsaue près d'Aschersleben, Saxe-Anhalt, Allemagne, ce qui en fait la plus ancienne colle fabriquée par l'homme. Ce même bitume de bouleau servait à calfater les embarcations. Enfin, sur les sites mésolithiques  (10 000 - 5 500 av. J.-C.) de Star Carr, Royaume-Uni ou encore néolithique (5 500 - 2 000 BC) d'Altscherbitz, Saxe, Allemagne, de la poix de bouleau a également été trouvée, portant des empreintes de dents humaines, sans toutefois que l'on sache à quelle fin (technique ou dentaire).
 L'huile de poix de bouleau est un répulsif très apprécié pour son efficacité dans les pays scandinaves qui, l'été, sont infestés de moustiques, tout comme l'« essence de népéta », documentée en Iowa, aux États-Unis.  
 En France, en 1896, le Journal des connaissances utiles indique dans un article du mois de mars que « les salières suspendues sous le manteau de nos cheminées de cuisine sont en bois de bouleau. Son écorce sert à tanner le cuir et à lui donner une belle couleur jaune... » parmi d'autres usages, son bois est utilisé dans la fabrication de balais, de verges, de sabots tandis que la sève, voire l'écorce, servent de matière première, par exemple au charron pour fabriquer une poix graisseuse mais stable appliquée sur les jantes de roues.
-Vertus médicinales
-La sève, les feuilles et l'écorce ont des vertus diurétiques et sont également utilisées dans le traitement des affections cutanées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le bouleau et l'Homme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vertus médicinales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sève, les feuilles et l'écorce ont des vertus diurétiques et sont également utilisées dans le traitement des affections cutanées.
 En herboristerie, le bouleau a de nombreuses vertus. On utilise les bourgeons ou l'écorce sèche en décoction et les feuilles en infusion comme dépuratif. La sève de bouleau appelée eau de bouleau est également utilisée dans de nombreux pays.
 En phytothérapie, on utilise la feuille de bouleau en poudre pour faciliter les fonctions d'élimination rénale et digestive.
-Dans le traitement du cancer, l'acide bétulinique, un composé naturel de l'écorce de bouleau, est cytotoxique pour de nombreuses tumeurs[23],[24]. Un parasite du bouleau, Inonotus obliquus, communément connu sous le nom vernaculaire de Polypore oblique ou de Chaga, présente des vertus particulières[25].
-Allergies
-Le bouleau produit un pollen très allergisant, à peu près 8 % de la population mondiale y étant sensible.
-Symbolique
-Calendrier celtique
-Le bouleau est le premier arbre du calendrier celtique ; il symbolise la naissance, le renouveau.
-Calendrier républicain
-Dans le calendrier républicain, le Bouleau était le nom attribué au 7e jour du mois de germinal[26].
-Le bouleau dans l'art
-Peinture
+Dans le traitement du cancer, l'acide bétulinique, un composé naturel de l'écorce de bouleau, est cytotoxique pour de nombreuses tumeurs,. Un parasite du bouleau, Inonotus obliquus, communément connu sous le nom vernaculaire de Polypore oblique ou de Chaga, présente des vertus particulières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le bouleau et l'Homme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Allergies</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouleau produit un pollen très allergisant, à peu près 8 % de la population mondiale y étant sensible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le bouleau et l'Homme</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Calendrier celtique</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le bouleau est le premier arbre du calendrier celtique ; il symbolise la naissance, le renouveau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le bouleau et l'Homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, le Bouleau était le nom attribué au 7e jour du mois de germinal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Le bouleau et l'Homme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le bouleau dans l'art</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Birk i storm (1849), Johan Christian Dahl (Bergen Kunstmuseum).
 			Forêt de bouleaux (1897), Antonín Slavíček (Galerie nationale de Prague).
 			Winter near Montreal (1891-1901) Maurice Cullen, musée des beaux-arts de l'Ontario.
 			Dans le Nord (1915), Tom Thomson, Musée des beaux-arts du Canada.
-Poésie
-Poème de Sergueï Essénine (poète russe, 1913)[27].
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bouleau</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le bouleau et l'Homme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Le bouleau dans l'art</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poème de Sergueï Essénine (poète russe, 1913).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom local du bouleau est également à l'origine du nom du mois de mars dans plusieurs langues slaves, comme en tchèque (březen) et en ukrainien (березень) ; il s'agirait d'une évocation de la sève qui commence à circuler à cette époque[28].
-Les Amérindiens considéraient le bouleau comme un arbre sacré et utilisaient son écorce pour fabriquer des canots[3] et des parchemins.
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le nom local du bouleau est également à l'origine du nom du mois de mars dans plusieurs langues slaves, comme en tchèque (březen) et en ukrainien (березень) ; il s'agirait d'une évocation de la sève qui commence à circuler à cette époque.
+Les Amérindiens considéraient le bouleau comme un arbre sacré et utilisaient son écorce pour fabriquer des canots et des parchemins.
 Enfin, si le frêne (ask) est l'arbre symbolisant les mythologies scandinaves, le bouleau (bjørk ou bjerk) est un symbole nationaliste norvégien, utilisé de nombreuses fois par les peintres romantiques. Johan Christian Dahl a pour un de ses plus célèbres tableaux, Bjerk i storm (Bouleau dans la tempête) représentant un bouleau situé sur une falaise et malmené par le vent.
 De même en Russie, le bouleau est considéré comme l'arbre national et est fêté chaque année pendant la Semaine verte de début juin.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bouleau</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèces de l'Ancien Monde (paléarctique)
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espèces de l'Ancien Monde (paléarctique)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Betula albosinensis Burkill – Centre et ouest de la Chine
 Betula alnoides Buch.-Ham. ex D. Don – Himalaya
 Betula apoiensis Nakai – Japon
@@ -717,7 +969,43 @@
 Betula turkestanica Litv. – Turkestan
 Betula utilis D. Don – Himalaya
 Betula szaferi Jent.-Szaf. ex Stasz. - Pologne
-Espèces du Nouveau Monde (néarctique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Espèces du Nouveau Monde (néarctique)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Betula alleghaniensis Britton – Est du Canada et des États-Unis
 Betula papyrifera var. cordifolia (Regel) Regel – Amérique du Nord
 Betula glandulosa Michx. – Amérique du Nord
@@ -736,31 +1024,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bouleau</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Les espèces européennes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Bouleau verruqueux (Betula pendula Roth., syn. B. verrucosa Ehrh.) – Presque toute l’Europe, mais rare dans le sud ; arbre à croissance rapide (12 m en 20 ans) pouvant atteindre 25 m de hauteur ; rameaux retombants glabres, pourvus de verrues résinifères ; feuilles triangulaires doublement dentées, glabres. Le bouleau verruqueux a une écorce blanche, lisse et brillante avec quelques taches noires, souvent accompagnées de crevasses. Espèce pionnière sur sol riche ou calcaire, parfois très sec (dunes).
 Var. lapponica Lindq. se rencontre dans les régions arctiques.
@@ -770,9 +1060,43 @@
 subsp. celtiberica (Rothm. &amp; Vasc.) Rivas Mart. – Endémique des montagnes du nord et du centre de l’Espagne et du nord du Portugal.
 subsp. tortuosa (Ledeb.) Nyman – Europe arctique, montagnes de Scandinavie et Islande.
 Bouleau nain (Betula nana L.) – Europe arctique jusqu’en Russie centrale, relique glaciaire en Europe moyenne depuis la France (Margeride et Jura) jusque dans l’est des Carpates. Arbuste nain à port souvent prostré, atteignant 50 cm, parfois 1 m, à minuscules feuilles rondes et dentées (1 cm), devenant jaune or en automne. Espèce caractéristique de la zone des arbrisseaux des montagnes du nord de l’Europe.
-Bouleau peu élevé (Betula humilis L.) – Nord de la Russie, relique glaciaire dans le centre et l’est de l’Europe, du nord de l’Allemagne au nord-est de la Suisse et au centre de la Roumanie[29],[30]. Espèce arbustive de 50 cm à 2 m, à rameaux pubescents glanduleux ; feuilles ovales dentées de 2 à 3 cm.
-Hybrides
-Là où plusieurs espèces croissent ensemble, on peut rencontrer les hybrides suivants :
+Bouleau peu élevé (Betula humilis L.) – Nord de la Russie, relique glaciaire dans le centre et l’est de l’Europe, du nord de l’Allemagne au nord-est de la Suisse et au centre de la Roumanie,. Espèce arbustive de 50 cm à 2 m, à rameaux pubescents glanduleux ; feuilles ovales dentées de 2 à 3 cm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Les espèces européennes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Là où plusieurs espèces croissent ensemble, on peut rencontrer les hybrides suivants :
 Betula × aurata Borkh. (Syn. Betula × obscura Kotula), un hybride entre Betula pendula et Betula pubescens
 Betula humilis × Betula nana
 Betula nana × Betula pendula
@@ -780,31 +1104,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bouleau</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bouleau</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouleau</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Quelques espèces d’autres régions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouleau jaune (Betula alleghaniensis Britton) – Est de l’Amérique du Nord. Arbre au tronc droit long à couleur de miel ou brun clair, à branches fortes à faible défilement. Ce bouleau à croissance lente (4,5 m en 20 ans) atteint 19 à 25 m, parfois 30 m de hauteur. Les rameaux et l’écorce ont une odeur aromatique. Le bouleau jaune est l'arbre-emblème officiel du Québec (Canada).
 Bouleau flexible (Betula lenta L.) – Est de l’Amérique du Nord. Arbre à écorce brun foncé pouvant atteindre 25 m. Comme le précédent, les rameaux et l’écorce ont une odeur aromatique.
